--- a/data/raw/election/voters-age-sex-education/2023/Çorum.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Çorum.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="43">
   <si>
     <t>Çorum</t>
   </si>
@@ -142,6 +143,12 @@
   </si>
   <si>
     <t>Uğurludağ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -675,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -689,11 +696,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,10 +1039,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N368"/>
+  <dimension ref="A1:N370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K211" sqref="K211"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="K266" sqref="K266:K290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,52 +1057,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="5">
-        <v>1.4790000000000001</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1198,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="M7" s="5">
-        <v>1.3859999999999999</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1238,7 +1254,7 @@
       <c r="L8" s="4">
         <v>2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>826</v>
       </c>
     </row>
@@ -1277,7 +1293,7 @@
       <c r="L9" s="4">
         <v>11</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>857</v>
       </c>
     </row>
@@ -1318,7 +1334,7 @@
       <c r="L10" s="4">
         <v>7</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>725</v>
       </c>
     </row>
@@ -1357,7 +1373,7 @@
       <c r="L11" s="4">
         <v>8</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>800</v>
       </c>
     </row>
@@ -1398,7 +1414,7 @@
       <c r="L12" s="4">
         <v>7</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>878</v>
       </c>
     </row>
@@ -1437,7 +1453,7 @@
       <c r="L13" s="4">
         <v>4</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>756</v>
       </c>
     </row>
@@ -1478,7 +1494,7 @@
       <c r="L14" s="4">
         <v>14</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>921</v>
       </c>
     </row>
@@ -1517,7 +1533,7 @@
       <c r="L15" s="4">
         <v>8</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>838</v>
       </c>
     </row>
@@ -1558,7 +1574,7 @@
       <c r="L16" s="4">
         <v>3</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>839</v>
       </c>
     </row>
@@ -1597,7 +1613,7 @@
       <c r="L17" s="4">
         <v>6</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>903</v>
       </c>
     </row>
@@ -1638,7 +1654,7 @@
       <c r="L18" s="4">
         <v>11</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>922</v>
       </c>
     </row>
@@ -1677,7 +1693,7 @@
       <c r="L19" s="4">
         <v>15</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>952</v>
       </c>
     </row>
@@ -1719,7 +1735,7 @@
         <v>21</v>
       </c>
       <c r="M20" s="5">
-        <v>1.091</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1758,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="M21" s="5">
-        <v>1.034</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1799,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="M22" s="5">
-        <v>1.026</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1838,7 +1854,7 @@
         <v>8</v>
       </c>
       <c r="M23" s="5">
-        <v>1.0069999999999999</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,7 +1894,7 @@
       <c r="L24" s="4">
         <v>9</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>879</v>
       </c>
     </row>
@@ -1917,7 +1933,7 @@
       <c r="L25" s="4">
         <v>10</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>930</v>
       </c>
     </row>
@@ -1958,7 +1974,7 @@
       <c r="L26" s="4">
         <v>20</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>764</v>
       </c>
     </row>
@@ -1997,7 +2013,7 @@
       <c r="L27" s="4">
         <v>19</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>866</v>
       </c>
     </row>
@@ -2038,7 +2054,7 @@
       <c r="L28" s="4">
         <v>21</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>989</v>
       </c>
     </row>
@@ -2078,53 +2094,53 @@
         <v>15</v>
       </c>
       <c r="M29" s="5">
-        <v>1.5249999999999999</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>993</v>
       </c>
       <c r="D30" s="5">
-        <v>1.522</v>
+        <v>1522</v>
       </c>
       <c r="E30" s="5">
-        <v>7.641</v>
+        <v>7641</v>
       </c>
       <c r="F30" s="5">
-        <v>1.857</v>
+        <v>1857</v>
       </c>
       <c r="G30" s="5">
-        <v>3.3069999999999999</v>
+        <v>3307</v>
       </c>
       <c r="H30" s="5">
-        <v>4.8959999999999999</v>
+        <v>4896</v>
       </c>
       <c r="I30" s="5">
-        <v>2.4849999999999999</v>
-      </c>
-      <c r="J30" s="5">
+        <v>2485</v>
+      </c>
+      <c r="J30" s="6">
         <v>194</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>19</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>279</v>
       </c>
       <c r="M30" s="5">
-        <v>23.193000000000001</v>
+        <v>23193</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2196,7 +2212,7 @@
       <c r="L32" s="4">
         <v>8</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="6">
         <v>655</v>
       </c>
     </row>
@@ -2235,7 +2251,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="6">
         <v>700</v>
       </c>
     </row>
@@ -2276,7 +2292,7 @@
       <c r="L34" s="4">
         <v>4</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>396</v>
       </c>
     </row>
@@ -2315,7 +2331,7 @@
       <c r="L35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>379</v>
       </c>
     </row>
@@ -2356,7 +2372,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>333</v>
       </c>
     </row>
@@ -2395,7 +2411,7 @@
       <c r="L37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>322</v>
       </c>
     </row>
@@ -2436,7 +2452,7 @@
       <c r="L38" s="4">
         <v>2</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>371</v>
       </c>
     </row>
@@ -2475,7 +2491,7 @@
       <c r="L39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>342</v>
       </c>
     </row>
@@ -2516,7 +2532,7 @@
       <c r="L40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>382</v>
       </c>
     </row>
@@ -2555,7 +2571,7 @@
       <c r="L41" s="4">
         <v>2</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>391</v>
       </c>
     </row>
@@ -2596,7 +2612,7 @@
       <c r="L42" s="4">
         <v>2</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>348</v>
       </c>
     </row>
@@ -2635,7 +2651,7 @@
       <c r="L43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>382</v>
       </c>
     </row>
@@ -2676,7 +2692,7 @@
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>484</v>
       </c>
     </row>
@@ -2715,7 +2731,7 @@
       <c r="L45" s="4">
         <v>2</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>524</v>
       </c>
     </row>
@@ -2756,7 +2772,7 @@
       <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>505</v>
       </c>
     </row>
@@ -2795,7 +2811,7 @@
       <c r="L47" s="4">
         <v>2</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>530</v>
       </c>
     </row>
@@ -2836,7 +2852,7 @@
       <c r="L48" s="4">
         <v>1</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>510</v>
       </c>
     </row>
@@ -2875,7 +2891,7 @@
       <c r="L49" s="4">
         <v>1</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>613</v>
       </c>
     </row>
@@ -2916,7 +2932,7 @@
       <c r="L50" s="4">
         <v>2</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>577</v>
       </c>
     </row>
@@ -2955,7 +2971,7 @@
       <c r="L51" s="4">
         <v>1</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>624</v>
       </c>
     </row>
@@ -2996,7 +3012,7 @@
       <c r="L52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>380</v>
       </c>
     </row>
@@ -3035,7 +3051,7 @@
       <c r="L53" s="4">
         <v>4</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>546</v>
       </c>
     </row>
@@ -3076,7 +3092,7 @@
       <c r="L54" s="4">
         <v>2</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>641</v>
       </c>
     </row>
@@ -3115,7 +3131,7 @@
       <c r="L55" s="4">
         <v>2</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>899</v>
       </c>
     </row>
@@ -3123,46 +3139,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
         <v>784</v>
       </c>
       <c r="D56" s="5">
-        <v>1.4790000000000001</v>
+        <v>1479</v>
       </c>
       <c r="E56" s="5">
-        <v>4.1790000000000003</v>
+        <v>4179</v>
       </c>
       <c r="F56" s="5">
-        <v>1.1439999999999999</v>
+        <v>1144</v>
       </c>
       <c r="G56" s="5">
-        <v>1.46</v>
+        <v>1460</v>
       </c>
       <c r="H56" s="5">
-        <v>1.794</v>
-      </c>
-      <c r="I56" s="5">
+        <v>1794</v>
+      </c>
+      <c r="I56" s="6">
         <v>867</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="6">
         <v>83</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>5</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>39</v>
       </c>
       <c r="M56" s="5">
-        <v>11.834</v>
+        <v>11834</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3234,7 +3250,7 @@
       <c r="L58" s="4">
         <v>1</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>140</v>
       </c>
     </row>
@@ -3273,7 +3289,7 @@
       <c r="L59" s="4">
         <v>1</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>140</v>
       </c>
     </row>
@@ -3314,7 +3330,7 @@
       <c r="L60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>117</v>
       </c>
     </row>
@@ -3353,7 +3369,7 @@
       <c r="L61" s="4">
         <v>1</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>96</v>
       </c>
     </row>
@@ -3394,7 +3410,7 @@
       <c r="L62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>86</v>
       </c>
     </row>
@@ -3433,7 +3449,7 @@
       <c r="L63" s="4">
         <v>1</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>53</v>
       </c>
     </row>
@@ -3474,7 +3490,7 @@
       <c r="L64" s="4">
         <v>2</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>75</v>
       </c>
     </row>
@@ -3513,7 +3529,7 @@
       <c r="L65" s="4">
         <v>1</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>60</v>
       </c>
     </row>
@@ -3554,7 +3570,7 @@
       <c r="L66" s="4">
         <v>1</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>88</v>
       </c>
     </row>
@@ -3593,7 +3609,7 @@
       <c r="L67" s="4">
         <v>1</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>83</v>
       </c>
     </row>
@@ -3634,7 +3650,7 @@
       <c r="L68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>115</v>
       </c>
     </row>
@@ -3673,7 +3689,7 @@
       <c r="L69" s="4">
         <v>3</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>115</v>
       </c>
     </row>
@@ -3714,7 +3730,7 @@
       <c r="L70" s="4">
         <v>4</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>127</v>
       </c>
     </row>
@@ -3753,7 +3769,7 @@
       <c r="L71" s="4">
         <v>2</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>133</v>
       </c>
     </row>
@@ -3794,7 +3810,7 @@
       <c r="L72" s="4">
         <v>1</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>171</v>
       </c>
     </row>
@@ -3833,7 +3849,7 @@
       <c r="L73" s="4">
         <v>2</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>128</v>
       </c>
     </row>
@@ -3874,7 +3890,7 @@
       <c r="L74" s="4">
         <v>3</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>157</v>
       </c>
     </row>
@@ -3913,7 +3929,7 @@
       <c r="L75" s="4">
         <v>2</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>145</v>
       </c>
     </row>
@@ -3954,7 +3970,7 @@
       <c r="L76" s="4">
         <v>1</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>158</v>
       </c>
     </row>
@@ -3993,7 +4009,7 @@
       <c r="L77" s="4">
         <v>1</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>152</v>
       </c>
     </row>
@@ -4034,7 +4050,7 @@
       <c r="L78" s="4">
         <v>2</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>125</v>
       </c>
     </row>
@@ -4073,7 +4089,7 @@
       <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>182</v>
       </c>
     </row>
@@ -4114,7 +4130,7 @@
       <c r="L80" s="4">
         <v>1</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>163</v>
       </c>
     </row>
@@ -4153,7 +4169,7 @@
       <c r="L81" s="4">
         <v>2</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>234</v>
       </c>
     </row>
@@ -4161,46 +4177,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>47</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>454</v>
       </c>
       <c r="E82" s="5">
-        <v>1.117</v>
-      </c>
-      <c r="F82" s="5">
+        <v>1117</v>
+      </c>
+      <c r="F82" s="6">
         <v>282</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="6">
         <v>407</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="6">
         <v>438</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="6">
         <v>244</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="6">
         <v>17</v>
       </c>
-      <c r="K82" s="5">
-        <v>2</v>
-      </c>
-      <c r="L82" s="5">
+      <c r="K82" s="6">
+        <v>2</v>
+      </c>
+      <c r="L82" s="6">
         <v>35</v>
       </c>
       <c r="M82" s="5">
-        <v>3.0430000000000001</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4254,14 +4270,14 @@
       <c r="F84" s="4">
         <v>3</v>
       </c>
-      <c r="G84" s="4">
-        <v>2.7280000000000002</v>
-      </c>
-      <c r="H84" s="4">
-        <v>9.0779999999999994</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.629</v>
+      <c r="G84" s="8">
+        <v>2728</v>
+      </c>
+      <c r="H84" s="8">
+        <v>9078</v>
+      </c>
+      <c r="I84" s="8">
+        <v>1629</v>
       </c>
       <c r="J84" s="4">
         <v>16</v>
@@ -4273,7 +4289,7 @@
         <v>98</v>
       </c>
       <c r="M84" s="5">
-        <v>13.593999999999999</v>
+        <v>13594</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4293,14 +4309,14 @@
       <c r="F85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="4">
-        <v>2.0590000000000002</v>
-      </c>
-      <c r="H85" s="4">
-        <v>9.5630000000000006</v>
-      </c>
-      <c r="I85" s="4">
-        <v>2.6259999999999999</v>
+      <c r="G85" s="8">
+        <v>2059</v>
+      </c>
+      <c r="H85" s="8">
+        <v>9563</v>
+      </c>
+      <c r="I85" s="8">
+        <v>2626</v>
       </c>
       <c r="J85" s="4">
         <v>17</v>
@@ -4312,7 +4328,7 @@
         <v>48</v>
       </c>
       <c r="M85" s="5">
-        <v>14.375999999999999</v>
+        <v>14376</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4334,14 +4350,14 @@
       <c r="F86" s="4">
         <v>27</v>
       </c>
-      <c r="G86" s="4">
-        <v>2.073</v>
-      </c>
-      <c r="H86" s="4">
-        <v>3.363</v>
-      </c>
-      <c r="I86" s="4">
-        <v>3.637</v>
+      <c r="G86" s="8">
+        <v>2073</v>
+      </c>
+      <c r="H86" s="8">
+        <v>3363</v>
+      </c>
+      <c r="I86" s="8">
+        <v>3637</v>
       </c>
       <c r="J86" s="4">
         <v>269</v>
@@ -4353,7 +4369,7 @@
         <v>61</v>
       </c>
       <c r="M86" s="5">
-        <v>9.4580000000000002</v>
+        <v>9458</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4373,14 +4389,14 @@
       <c r="F87" s="4">
         <v>52</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.915</v>
-      </c>
-      <c r="H87" s="4">
-        <v>2.6930000000000001</v>
-      </c>
-      <c r="I87" s="4">
-        <v>4.9240000000000004</v>
+      <c r="G87" s="8">
+        <v>1915</v>
+      </c>
+      <c r="H87" s="8">
+        <v>2693</v>
+      </c>
+      <c r="I87" s="8">
+        <v>4924</v>
       </c>
       <c r="J87" s="4">
         <v>360</v>
@@ -4392,7 +4408,7 @@
         <v>82</v>
       </c>
       <c r="M87" s="5">
-        <v>10.154999999999999</v>
+        <v>10155</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4411,17 +4427,17 @@
       <c r="E88" s="4">
         <v>30</v>
       </c>
-      <c r="F88" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H88" s="4">
-        <v>3.1110000000000002</v>
-      </c>
-      <c r="I88" s="4">
-        <v>3.3479999999999999</v>
+      <c r="F88" s="8">
+        <v>1340</v>
+      </c>
+      <c r="G88" s="8">
+        <v>1035</v>
+      </c>
+      <c r="H88" s="8">
+        <v>3111</v>
+      </c>
+      <c r="I88" s="8">
+        <v>3348</v>
       </c>
       <c r="J88" s="4">
         <v>427</v>
@@ -4433,7 +4449,7 @@
         <v>62</v>
       </c>
       <c r="M88" s="5">
-        <v>9.4220000000000006</v>
+        <v>9422</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4450,17 +4466,17 @@
       <c r="E89" s="4">
         <v>96</v>
       </c>
-      <c r="F89" s="4">
-        <v>1.589</v>
+      <c r="F89" s="8">
+        <v>1589</v>
       </c>
       <c r="G89" s="4">
         <v>953</v>
       </c>
-      <c r="H89" s="4">
-        <v>2.9159999999999999</v>
-      </c>
-      <c r="I89" s="4">
-        <v>3.923</v>
+      <c r="H89" s="8">
+        <v>2916</v>
+      </c>
+      <c r="I89" s="8">
+        <v>3923</v>
       </c>
       <c r="J89" s="4">
         <v>451</v>
@@ -4472,7 +4488,7 @@
         <v>85</v>
       </c>
       <c r="M89" s="5">
-        <v>10.186</v>
+        <v>10186</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4491,17 +4507,17 @@
       <c r="E90" s="4">
         <v>402</v>
       </c>
-      <c r="F90" s="4">
-        <v>1.925</v>
+      <c r="F90" s="8">
+        <v>1925</v>
       </c>
       <c r="G90" s="4">
         <v>932</v>
       </c>
-      <c r="H90" s="4">
-        <v>3.4489999999999998</v>
-      </c>
-      <c r="I90" s="4">
-        <v>2.9470000000000001</v>
+      <c r="H90" s="8">
+        <v>3449</v>
+      </c>
+      <c r="I90" s="8">
+        <v>2947</v>
       </c>
       <c r="J90" s="4">
         <v>524</v>
@@ -4513,7 +4529,7 @@
         <v>73</v>
       </c>
       <c r="M90" s="5">
-        <v>10.385</v>
+        <v>10385</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4527,20 +4543,20 @@
       <c r="D91" s="4">
         <v>82</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="G91" s="4">
-        <v>1.194</v>
-      </c>
-      <c r="H91" s="4">
-        <v>3.2210000000000001</v>
-      </c>
-      <c r="I91" s="4">
-        <v>2.9060000000000001</v>
+      <c r="E91" s="8">
+        <v>1408</v>
+      </c>
+      <c r="F91" s="8">
+        <v>1632</v>
+      </c>
+      <c r="G91" s="8">
+        <v>1194</v>
+      </c>
+      <c r="H91" s="8">
+        <v>3221</v>
+      </c>
+      <c r="I91" s="8">
+        <v>2906</v>
       </c>
       <c r="J91" s="4">
         <v>368</v>
@@ -4552,7 +4568,7 @@
         <v>64</v>
       </c>
       <c r="M91" s="5">
-        <v>10.973000000000001</v>
+        <v>10973</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4571,17 +4587,17 @@
       <c r="E92" s="4">
         <v>944</v>
       </c>
-      <c r="F92" s="4">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="H92" s="4">
-        <v>3.6379999999999999</v>
-      </c>
-      <c r="I92" s="4">
-        <v>2.5910000000000002</v>
+      <c r="F92" s="8">
+        <v>1916</v>
+      </c>
+      <c r="G92" s="8">
+        <v>1662</v>
+      </c>
+      <c r="H92" s="8">
+        <v>3638</v>
+      </c>
+      <c r="I92" s="8">
+        <v>2591</v>
       </c>
       <c r="J92" s="4">
         <v>515</v>
@@ -4593,7 +4609,7 @@
         <v>76</v>
       </c>
       <c r="M92" s="5">
-        <v>11.474</v>
+        <v>11474</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4607,20 +4623,20 @@
       <c r="D93" s="4">
         <v>39</v>
       </c>
-      <c r="E93" s="4">
-        <v>2.4710000000000001</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="G93" s="4">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="H93" s="4">
-        <v>3.1219999999999999</v>
-      </c>
-      <c r="I93" s="4">
-        <v>2.266</v>
+      <c r="E93" s="8">
+        <v>2471</v>
+      </c>
+      <c r="F93" s="8">
+        <v>1670</v>
+      </c>
+      <c r="G93" s="8">
+        <v>1884</v>
+      </c>
+      <c r="H93" s="8">
+        <v>3122</v>
+      </c>
+      <c r="I93" s="8">
+        <v>2266</v>
       </c>
       <c r="J93" s="4">
         <v>398</v>
@@ -4632,7 +4648,7 @@
         <v>75</v>
       </c>
       <c r="M93" s="5">
-        <v>12.032</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4648,20 +4664,20 @@
       <c r="D94" s="4">
         <v>17</v>
       </c>
-      <c r="E94" s="4">
-        <v>1.204</v>
-      </c>
-      <c r="F94" s="4">
-        <v>2.2130000000000001</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="H94" s="4">
-        <v>2.69</v>
-      </c>
-      <c r="I94" s="4">
-        <v>2.2370000000000001</v>
+      <c r="E94" s="8">
+        <v>1204</v>
+      </c>
+      <c r="F94" s="8">
+        <v>2213</v>
+      </c>
+      <c r="G94" s="8">
+        <v>1477</v>
+      </c>
+      <c r="H94" s="8">
+        <v>2690</v>
+      </c>
+      <c r="I94" s="8">
+        <v>2237</v>
       </c>
       <c r="J94" s="4">
         <v>349</v>
@@ -4673,7 +4689,7 @@
         <v>93</v>
       </c>
       <c r="M94" s="5">
-        <v>10.391999999999999</v>
+        <v>10392</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4687,20 +4703,20 @@
       <c r="D95" s="4">
         <v>41</v>
       </c>
-      <c r="E95" s="4">
-        <v>2.8889999999999998</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1.9510000000000001</v>
-      </c>
-      <c r="G95" s="4">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="H95" s="4">
-        <v>2.3109999999999999</v>
-      </c>
-      <c r="I95" s="4">
-        <v>1.3779999999999999</v>
+      <c r="E95" s="8">
+        <v>2889</v>
+      </c>
+      <c r="F95" s="8">
+        <v>1951</v>
+      </c>
+      <c r="G95" s="8">
+        <v>1731</v>
+      </c>
+      <c r="H95" s="8">
+        <v>2311</v>
+      </c>
+      <c r="I95" s="8">
+        <v>1378</v>
       </c>
       <c r="J95" s="4">
         <v>166</v>
@@ -4712,7 +4728,7 @@
         <v>95</v>
       </c>
       <c r="M95" s="5">
-        <v>10.648999999999999</v>
+        <v>10649</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4728,20 +4744,20 @@
       <c r="D96" s="4">
         <v>13</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.577</v>
-      </c>
-      <c r="F96" s="4">
-        <v>2.2530000000000001</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1.478</v>
-      </c>
-      <c r="H96" s="4">
-        <v>1.819</v>
-      </c>
-      <c r="I96" s="4">
-        <v>1.7889999999999999</v>
+      <c r="E96" s="8">
+        <v>1577</v>
+      </c>
+      <c r="F96" s="8">
+        <v>2253</v>
+      </c>
+      <c r="G96" s="8">
+        <v>1478</v>
+      </c>
+      <c r="H96" s="8">
+        <v>1819</v>
+      </c>
+      <c r="I96" s="8">
+        <v>1789</v>
       </c>
       <c r="J96" s="4">
         <v>201</v>
@@ -4753,7 +4769,7 @@
         <v>122</v>
       </c>
       <c r="M96" s="5">
-        <v>9.3309999999999995</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4767,17 +4783,17 @@
       <c r="D97" s="4">
         <v>90</v>
       </c>
-      <c r="E97" s="4">
-        <v>3.57</v>
-      </c>
-      <c r="F97" s="4">
-        <v>1.704</v>
-      </c>
-      <c r="G97" s="4">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="H97" s="4">
-        <v>1.6850000000000001</v>
+      <c r="E97" s="8">
+        <v>3570</v>
+      </c>
+      <c r="F97" s="8">
+        <v>1704</v>
+      </c>
+      <c r="G97" s="8">
+        <v>1315</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1685</v>
       </c>
       <c r="I97" s="4">
         <v>772</v>
@@ -4792,7 +4808,7 @@
         <v>145</v>
       </c>
       <c r="M97" s="5">
-        <v>9.4570000000000007</v>
+        <v>9457</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4808,20 +4824,20 @@
       <c r="D98" s="4">
         <v>42</v>
       </c>
-      <c r="E98" s="4">
-        <v>2.2610000000000001</v>
-      </c>
-      <c r="F98" s="4">
-        <v>1.821</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1.31</v>
-      </c>
-      <c r="H98" s="4">
-        <v>1.494</v>
-      </c>
-      <c r="I98" s="4">
-        <v>1.2669999999999999</v>
+      <c r="E98" s="8">
+        <v>2261</v>
+      </c>
+      <c r="F98" s="8">
+        <v>1821</v>
+      </c>
+      <c r="G98" s="8">
+        <v>1310</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1494</v>
+      </c>
+      <c r="I98" s="8">
+        <v>1267</v>
       </c>
       <c r="J98" s="4">
         <v>113</v>
@@ -4833,7 +4849,7 @@
         <v>165</v>
       </c>
       <c r="M98" s="5">
-        <v>8.5280000000000005</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4847,17 +4863,17 @@
       <c r="D99" s="4">
         <v>195</v>
       </c>
-      <c r="E99" s="4">
-        <v>4.399</v>
-      </c>
-      <c r="F99" s="4">
-        <v>1.153</v>
+      <c r="E99" s="8">
+        <v>4399</v>
+      </c>
+      <c r="F99" s="8">
+        <v>1153</v>
       </c>
       <c r="G99" s="4">
         <v>987</v>
       </c>
-      <c r="H99" s="4">
-        <v>1.1819999999999999</v>
+      <c r="H99" s="8">
+        <v>1182</v>
       </c>
       <c r="I99" s="4">
         <v>443</v>
@@ -4872,7 +4888,7 @@
         <v>135</v>
       </c>
       <c r="M99" s="5">
-        <v>8.6639999999999997</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4888,8 +4904,8 @@
       <c r="D100" s="4">
         <v>65</v>
       </c>
-      <c r="E100" s="4">
-        <v>2.8279999999999998</v>
+      <c r="E100" s="8">
+        <v>2828</v>
       </c>
       <c r="F100" s="4">
         <v>987</v>
@@ -4897,8 +4913,8 @@
       <c r="G100" s="4">
         <v>949</v>
       </c>
-      <c r="H100" s="4">
-        <v>1.302</v>
+      <c r="H100" s="8">
+        <v>1302</v>
       </c>
       <c r="I100" s="4">
         <v>938</v>
@@ -4913,7 +4929,7 @@
         <v>138</v>
       </c>
       <c r="M100" s="5">
-        <v>7.3369999999999997</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4927,8 +4943,8 @@
       <c r="D101" s="4">
         <v>434</v>
       </c>
-      <c r="E101" s="4">
-        <v>4.6040000000000001</v>
+      <c r="E101" s="8">
+        <v>4604</v>
       </c>
       <c r="F101" s="4">
         <v>531</v>
@@ -4952,7 +4968,7 @@
         <v>142</v>
       </c>
       <c r="M101" s="5">
-        <v>7.7409999999999997</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4968,8 +4984,8 @@
       <c r="D102" s="4">
         <v>155</v>
       </c>
-      <c r="E102" s="4">
-        <v>2.8279999999999998</v>
+      <c r="E102" s="8">
+        <v>2828</v>
       </c>
       <c r="F102" s="4">
         <v>442</v>
@@ -4993,7 +5009,7 @@
         <v>113</v>
       </c>
       <c r="M102" s="5">
-        <v>6.0460000000000003</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5007,8 +5023,8 @@
       <c r="D103" s="4">
         <v>806</v>
       </c>
-      <c r="E103" s="4">
-        <v>3.742</v>
+      <c r="E103" s="8">
+        <v>3742</v>
       </c>
       <c r="F103" s="4">
         <v>198</v>
@@ -5032,7 +5048,7 @@
         <v>116</v>
       </c>
       <c r="M103" s="5">
-        <v>6.3949999999999996</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5048,8 +5064,8 @@
       <c r="D104" s="4">
         <v>263</v>
       </c>
-      <c r="E104" s="4">
-        <v>2.4060000000000001</v>
+      <c r="E104" s="8">
+        <v>2406</v>
       </c>
       <c r="F104" s="4">
         <v>161</v>
@@ -5073,7 +5089,7 @@
         <v>71</v>
       </c>
       <c r="M104" s="5">
-        <v>4.3310000000000004</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5087,8 +5103,8 @@
       <c r="D105" s="4">
         <v>994</v>
       </c>
-      <c r="E105" s="4">
-        <v>2.3380000000000001</v>
+      <c r="E105" s="8">
+        <v>2338</v>
       </c>
       <c r="F105" s="4">
         <v>64</v>
@@ -5112,7 +5128,7 @@
         <v>104</v>
       </c>
       <c r="M105" s="5">
-        <v>4.867</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5128,8 +5144,8 @@
       <c r="D106" s="4">
         <v>811</v>
       </c>
-      <c r="E106" s="4">
-        <v>2.6890000000000001</v>
+      <c r="E106" s="8">
+        <v>2689</v>
       </c>
       <c r="F106" s="4">
         <v>76</v>
@@ -5153,7 +5169,7 @@
         <v>155</v>
       </c>
       <c r="M106" s="5">
-        <v>5.077</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5161,14 +5177,14 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.798</v>
-      </c>
-      <c r="E107" s="4">
-        <v>2.3620000000000001</v>
+      <c r="C107" s="8">
+        <v>2600</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1798</v>
+      </c>
+      <c r="E107" s="8">
+        <v>2362</v>
       </c>
       <c r="F107" s="4">
         <v>12</v>
@@ -5192,53 +5208,53 @@
         <v>178</v>
       </c>
       <c r="M107" s="5">
-        <v>7.2240000000000002</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>5.4489999999999998</v>
+        <v>5449</v>
       </c>
       <c r="D108" s="5">
-        <v>6.1719999999999997</v>
+        <v>6172</v>
       </c>
       <c r="E108" s="5">
-        <v>45.158999999999999</v>
+        <v>45159</v>
       </c>
       <c r="F108" s="5">
-        <v>23.72</v>
+        <v>23720</v>
       </c>
       <c r="G108" s="5">
-        <v>28.059000000000001</v>
+        <v>28059</v>
       </c>
       <c r="H108" s="5">
-        <v>59.661999999999999</v>
+        <v>59662</v>
       </c>
       <c r="I108" s="5">
-        <v>42.110999999999997</v>
+        <v>42111</v>
       </c>
       <c r="J108" s="5">
-        <v>4.476</v>
-      </c>
-      <c r="K108" s="5">
+        <v>4476</v>
+      </c>
+      <c r="K108" s="6">
         <v>790</v>
       </c>
       <c r="L108" s="5">
-        <v>2.496</v>
+        <v>2496</v>
       </c>
       <c r="M108" s="5">
-        <v>218.09399999999999</v>
+        <v>218094</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5310,7 +5326,7 @@
       <c r="L110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="6">
         <v>210</v>
       </c>
     </row>
@@ -5349,7 +5365,7 @@
       <c r="L111" s="4">
         <v>2</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="6">
         <v>187</v>
       </c>
     </row>
@@ -5390,7 +5406,7 @@
       <c r="L112" s="4">
         <v>1</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="6">
         <v>137</v>
       </c>
     </row>
@@ -5429,7 +5445,7 @@
       <c r="L113" s="4">
         <v>1</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="6">
         <v>112</v>
       </c>
     </row>
@@ -5470,7 +5486,7 @@
       <c r="L114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="6">
         <v>110</v>
       </c>
     </row>
@@ -5509,7 +5525,7 @@
       <c r="L115" s="4">
         <v>1</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="6">
         <v>99</v>
       </c>
     </row>
@@ -5550,7 +5566,7 @@
       <c r="L116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="6">
         <v>122</v>
       </c>
     </row>
@@ -5589,7 +5605,7 @@
       <c r="L117" s="4">
         <v>2</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="6">
         <v>98</v>
       </c>
     </row>
@@ -5630,7 +5646,7 @@
       <c r="L118" s="4">
         <v>1</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="6">
         <v>167</v>
       </c>
     </row>
@@ -5669,7 +5685,7 @@
       <c r="L119" s="4">
         <v>2</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="6">
         <v>134</v>
       </c>
     </row>
@@ -5710,7 +5726,7 @@
       <c r="L120" s="4">
         <v>4</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="6">
         <v>159</v>
       </c>
     </row>
@@ -5749,7 +5765,7 @@
       <c r="L121" s="4">
         <v>3</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="6">
         <v>169</v>
       </c>
     </row>
@@ -5790,7 +5806,7 @@
       <c r="L122" s="4">
         <v>3</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="6">
         <v>185</v>
       </c>
     </row>
@@ -5829,7 +5845,7 @@
       <c r="L123" s="4">
         <v>6</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="6">
         <v>194</v>
       </c>
     </row>
@@ -5870,7 +5886,7 @@
       <c r="L124" s="4">
         <v>3</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="6">
         <v>263</v>
       </c>
     </row>
@@ -5909,7 +5925,7 @@
       <c r="L125" s="4">
         <v>5</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="6">
         <v>237</v>
       </c>
     </row>
@@ -5950,7 +5966,7 @@
       <c r="L126" s="4">
         <v>3</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="6">
         <v>252</v>
       </c>
     </row>
@@ -5989,7 +6005,7 @@
       <c r="L127" s="4">
         <v>2</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>224</v>
       </c>
     </row>
@@ -6030,7 +6046,7 @@
       <c r="L128" s="4">
         <v>2</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>216</v>
       </c>
     </row>
@@ -6069,7 +6085,7 @@
       <c r="L129" s="4">
         <v>5</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>256</v>
       </c>
     </row>
@@ -6110,7 +6126,7 @@
       <c r="L130" s="4">
         <v>1</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>152</v>
       </c>
     </row>
@@ -6149,7 +6165,7 @@
       <c r="L131" s="4">
         <v>9</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>238</v>
       </c>
     </row>
@@ -6190,7 +6206,7 @@
       <c r="L132" s="4">
         <v>5</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>257</v>
       </c>
     </row>
@@ -6229,7 +6245,7 @@
       <c r="L133" s="4">
         <v>6</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="6">
         <v>382</v>
       </c>
     </row>
@@ -6237,46 +6253,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
         <v>175</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="6">
         <v>322</v>
       </c>
       <c r="E134" s="5">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="F134" s="5">
+        <v>1668</v>
+      </c>
+      <c r="F134" s="6">
         <v>565</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="6">
         <v>524</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="6">
         <v>828</v>
       </c>
-      <c r="I134" s="5">
+      <c r="I134" s="6">
         <v>387</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="6">
         <v>22</v>
       </c>
-      <c r="K134" s="5">
-        <v>2</v>
-      </c>
-      <c r="L134" s="5">
+      <c r="K134" s="6">
+        <v>2</v>
+      </c>
+      <c r="L134" s="6">
         <v>67</v>
       </c>
       <c r="M134" s="5">
-        <v>4.5599999999999996</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6349,7 +6365,7 @@
         <v>13</v>
       </c>
       <c r="M136" s="5">
-        <v>1.3320000000000001</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6388,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="M137" s="5">
-        <v>1.3420000000000001</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6428,7 +6444,7 @@
       <c r="L138" s="4">
         <v>4</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="6">
         <v>811</v>
       </c>
     </row>
@@ -6467,7 +6483,7 @@
       <c r="L139" s="4">
         <v>1</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="6">
         <v>782</v>
       </c>
     </row>
@@ -6508,7 +6524,7 @@
       <c r="L140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="6">
         <v>730</v>
       </c>
     </row>
@@ -6547,7 +6563,7 @@
       <c r="L141" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="6">
         <v>685</v>
       </c>
     </row>
@@ -6588,7 +6604,7 @@
       <c r="L142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="6">
         <v>784</v>
       </c>
     </row>
@@ -6627,7 +6643,7 @@
       <c r="L143" s="4">
         <v>2</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="6">
         <v>738</v>
       </c>
     </row>
@@ -6668,7 +6684,7 @@
       <c r="L144" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="6">
         <v>839</v>
       </c>
     </row>
@@ -6707,7 +6723,7 @@
       <c r="L145" s="4">
         <v>3</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="6">
         <v>829</v>
       </c>
     </row>
@@ -6748,7 +6764,7 @@
       <c r="L146" s="4">
         <v>1</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="6">
         <v>935</v>
       </c>
     </row>
@@ -6787,7 +6803,7 @@
       <c r="L147" s="4">
         <v>4</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="6">
         <v>993</v>
       </c>
     </row>
@@ -6828,7 +6844,7 @@
       <c r="L148" s="4">
         <v>4</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="6">
         <v>998</v>
       </c>
     </row>
@@ -6868,7 +6884,7 @@
         <v>3</v>
       </c>
       <c r="M149" s="5">
-        <v>1.0309999999999999</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6909,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="M150" s="5">
-        <v>1.121</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6948,7 +6964,7 @@
         <v>3</v>
       </c>
       <c r="M151" s="5">
-        <v>1.0780000000000001</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6988,7 +7004,7 @@
       <c r="L152" s="4">
         <v>5</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="6">
         <v>996</v>
       </c>
     </row>
@@ -7028,7 +7044,7 @@
         <v>3</v>
       </c>
       <c r="M153" s="5">
-        <v>1.1839999999999999</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7069,7 +7085,7 @@
         <v>4</v>
       </c>
       <c r="M154" s="5">
-        <v>1.014</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7108,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="M155" s="5">
-        <v>1.2270000000000001</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7148,7 +7164,7 @@
       <c r="L156" s="4">
         <v>1</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>747</v>
       </c>
     </row>
@@ -7187,7 +7203,7 @@
       <c r="L157" s="4">
         <v>2</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>960</v>
       </c>
     </row>
@@ -7229,7 +7245,7 @@
         <v>2</v>
       </c>
       <c r="M158" s="5">
-        <v>1.252</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7268,53 +7284,53 @@
         <v>6</v>
       </c>
       <c r="M159" s="5">
-        <v>1.7490000000000001</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>2.0019999999999998</v>
+        <v>2002</v>
       </c>
       <c r="D160" s="5">
-        <v>1.8520000000000001</v>
+        <v>1852</v>
       </c>
       <c r="E160" s="5">
-        <v>8.1839999999999993</v>
+        <v>8184</v>
       </c>
       <c r="F160" s="5">
-        <v>2.044</v>
+        <v>2044</v>
       </c>
       <c r="G160" s="5">
-        <v>2.911</v>
+        <v>2911</v>
       </c>
       <c r="H160" s="5">
-        <v>4.4260000000000002</v>
+        <v>4426</v>
       </c>
       <c r="I160" s="5">
-        <v>2.431</v>
-      </c>
-      <c r="J160" s="5">
+        <v>2431</v>
+      </c>
+      <c r="J160" s="6">
         <v>223</v>
       </c>
-      <c r="K160" s="5">
-        <v>15</v>
-      </c>
-      <c r="L160" s="5">
+      <c r="K160" s="6">
+        <v>15</v>
+      </c>
+      <c r="L160" s="6">
         <v>69</v>
       </c>
       <c r="M160" s="5">
-        <v>24.157</v>
+        <v>24157</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7402,7 @@
       <c r="L162" s="4">
         <v>3</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="6">
         <v>488</v>
       </c>
     </row>
@@ -7425,7 +7441,7 @@
       <c r="L163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="6">
         <v>495</v>
       </c>
     </row>
@@ -7466,7 +7482,7 @@
       <c r="L164" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="6">
         <v>353</v>
       </c>
     </row>
@@ -7505,7 +7521,7 @@
       <c r="L165" s="4">
         <v>2</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="6">
         <v>322</v>
       </c>
     </row>
@@ -7546,7 +7562,7 @@
       <c r="L166" s="4">
         <v>1</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="6">
         <v>340</v>
       </c>
     </row>
@@ -7585,7 +7601,7 @@
       <c r="L167" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="6">
         <v>286</v>
       </c>
     </row>
@@ -7626,7 +7642,7 @@
       <c r="L168" s="4">
         <v>1</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="6">
         <v>357</v>
       </c>
     </row>
@@ -7665,7 +7681,7 @@
       <c r="L169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="6">
         <v>338</v>
       </c>
     </row>
@@ -7706,7 +7722,7 @@
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="6">
         <v>350</v>
       </c>
     </row>
@@ -7745,7 +7761,7 @@
       <c r="L171" s="4">
         <v>1</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="6">
         <v>354</v>
       </c>
     </row>
@@ -7786,7 +7802,7 @@
       <c r="L172" s="4">
         <v>2</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="6">
         <v>371</v>
       </c>
     </row>
@@ -7825,7 +7841,7 @@
       <c r="L173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="6">
         <v>360</v>
       </c>
     </row>
@@ -7866,7 +7882,7 @@
       <c r="L174" s="4">
         <v>2</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="6">
         <v>461</v>
       </c>
     </row>
@@ -7905,7 +7921,7 @@
       <c r="L175" s="4">
         <v>3</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="6">
         <v>493</v>
       </c>
     </row>
@@ -7946,7 +7962,7 @@
       <c r="L176" s="4">
         <v>2</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="6">
         <v>567</v>
       </c>
     </row>
@@ -7985,7 +8001,7 @@
       <c r="L177" s="4">
         <v>1</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="6">
         <v>595</v>
       </c>
     </row>
@@ -8026,7 +8042,7 @@
       <c r="L178" s="4">
         <v>2</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="6">
         <v>764</v>
       </c>
     </row>
@@ -8065,7 +8081,7 @@
       <c r="L179" s="4">
         <v>3</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="6">
         <v>831</v>
       </c>
     </row>
@@ -8106,7 +8122,7 @@
       <c r="L180" s="4">
         <v>4</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="6">
         <v>807</v>
       </c>
     </row>
@@ -8145,7 +8161,7 @@
       <c r="L181" s="4">
         <v>4</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="6">
         <v>909</v>
       </c>
     </row>
@@ -8186,7 +8202,7 @@
       <c r="L182" s="4">
         <v>4</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>732</v>
       </c>
     </row>
@@ -8225,7 +8241,7 @@
       <c r="L183" s="4">
         <v>3</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>790</v>
       </c>
     </row>
@@ -8266,7 +8282,7 @@
       <c r="L184" s="4">
         <v>4</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>857</v>
       </c>
     </row>
@@ -8306,53 +8322,53 @@
         <v>2</v>
       </c>
       <c r="M185" s="5">
-        <v>1.2989999999999999</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
         <v>534</v>
       </c>
       <c r="D186" s="5">
-        <v>1.6279999999999999</v>
+        <v>1628</v>
       </c>
       <c r="E186" s="5">
-        <v>5.53</v>
-      </c>
-      <c r="F186" s="5">
+        <v>5530</v>
+      </c>
+      <c r="F186" s="6">
         <v>932</v>
       </c>
       <c r="G186" s="5">
-        <v>1.4139999999999999</v>
+        <v>1414</v>
       </c>
       <c r="H186" s="5">
-        <v>2.1739999999999999</v>
+        <v>2174</v>
       </c>
       <c r="I186" s="5">
-        <v>1.157</v>
-      </c>
-      <c r="J186" s="5">
+        <v>1157</v>
+      </c>
+      <c r="J186" s="6">
         <v>102</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="6">
         <v>4</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="6">
         <v>44</v>
       </c>
       <c r="M186" s="5">
-        <v>13.519</v>
+        <v>13519</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8377,7 +8393,7 @@
       <c r="J187" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L187" s="2" t="s">
@@ -8418,13 +8434,13 @@
       <c r="J188" s="4">
         <v>1</v>
       </c>
-      <c r="K188" s="4" t="s">
-        <v>15</v>
+      <c r="K188" s="4">
+        <v>0</v>
       </c>
       <c r="L188" s="4">
         <v>2</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="6">
         <v>174</v>
       </c>
     </row>
@@ -8457,13 +8473,13 @@
       <c r="J189" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K189" s="4" t="s">
-        <v>15</v>
+      <c r="K189" s="4">
+        <v>0</v>
       </c>
       <c r="L189" s="4">
         <v>2</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="6">
         <v>175</v>
       </c>
     </row>
@@ -8498,13 +8514,13 @@
       <c r="J190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K190" s="4" t="s">
-        <v>15</v>
+      <c r="K190" s="4">
+        <v>0</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="6">
         <v>90</v>
       </c>
     </row>
@@ -8537,13 +8553,13 @@
       <c r="J191" s="4">
         <v>3</v>
       </c>
-      <c r="K191" s="4" t="s">
-        <v>15</v>
+      <c r="K191" s="4">
+        <v>0</v>
       </c>
       <c r="L191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="6">
         <v>79</v>
       </c>
     </row>
@@ -8578,13 +8594,13 @@
       <c r="J192" s="4">
         <v>1</v>
       </c>
-      <c r="K192" s="4" t="s">
-        <v>15</v>
+      <c r="K192" s="4">
+        <v>0</v>
       </c>
       <c r="L192" s="4">
         <v>1</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="6">
         <v>98</v>
       </c>
     </row>
@@ -8617,13 +8633,13 @@
       <c r="J193" s="4">
         <v>1</v>
       </c>
-      <c r="K193" s="4" t="s">
-        <v>15</v>
+      <c r="K193" s="4">
+        <v>0</v>
       </c>
       <c r="L193" s="4">
         <v>1</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="6">
         <v>64</v>
       </c>
     </row>
@@ -8658,13 +8674,13 @@
       <c r="J194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K194" s="4" t="s">
-        <v>15</v>
+      <c r="K194" s="4">
+        <v>0</v>
       </c>
       <c r="L194" s="4">
         <v>4</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="6">
         <v>111</v>
       </c>
     </row>
@@ -8697,13 +8713,13 @@
       <c r="J195" s="4">
         <v>1</v>
       </c>
-      <c r="K195" s="4" t="s">
-        <v>15</v>
+      <c r="K195" s="4">
+        <v>0</v>
       </c>
       <c r="L195" s="4">
         <v>1</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="6">
         <v>72</v>
       </c>
     </row>
@@ -8738,13 +8754,13 @@
       <c r="J196" s="4">
         <v>2</v>
       </c>
-      <c r="K196" s="4" t="s">
-        <v>15</v>
+      <c r="K196" s="4">
+        <v>0</v>
       </c>
       <c r="L196" s="4">
         <v>1</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="6">
         <v>116</v>
       </c>
     </row>
@@ -8777,13 +8793,13 @@
       <c r="J197" s="4">
         <v>1</v>
       </c>
-      <c r="K197" s="4" t="s">
-        <v>15</v>
+      <c r="K197" s="4">
+        <v>0</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="6">
         <v>104</v>
       </c>
     </row>
@@ -8818,13 +8834,13 @@
       <c r="J198" s="4">
         <v>1</v>
       </c>
-      <c r="K198" s="4" t="s">
-        <v>15</v>
+      <c r="K198" s="4">
+        <v>0</v>
       </c>
       <c r="L198" s="4">
         <v>1</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="6">
         <v>134</v>
       </c>
     </row>
@@ -8857,13 +8873,13 @@
       <c r="J199" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K199" s="4" t="s">
-        <v>15</v>
+      <c r="K199" s="4">
+        <v>0</v>
       </c>
       <c r="L199" s="4">
         <v>2</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="6">
         <v>118</v>
       </c>
     </row>
@@ -8898,13 +8914,13 @@
       <c r="J200" s="4">
         <v>2</v>
       </c>
-      <c r="K200" s="4" t="s">
-        <v>15</v>
+      <c r="K200" s="4">
+        <v>0</v>
       </c>
       <c r="L200" s="4">
         <v>1</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="6">
         <v>142</v>
       </c>
     </row>
@@ -8937,13 +8953,13 @@
       <c r="J201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K201" s="4" t="s">
-        <v>15</v>
+      <c r="K201" s="4">
+        <v>0</v>
       </c>
       <c r="L201" s="4">
         <v>2</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="6">
         <v>149</v>
       </c>
     </row>
@@ -8978,13 +8994,13 @@
       <c r="J202" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K202" s="4" t="s">
-        <v>15</v>
+      <c r="K202" s="4">
+        <v>0</v>
       </c>
       <c r="L202" s="4">
         <v>1</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="6">
         <v>165</v>
       </c>
     </row>
@@ -9017,13 +9033,13 @@
       <c r="J203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K203" s="4" t="s">
-        <v>15</v>
+      <c r="K203" s="4">
+        <v>0</v>
       </c>
       <c r="L203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="6">
         <v>157</v>
       </c>
     </row>
@@ -9058,13 +9074,13 @@
       <c r="J204" s="4">
         <v>1</v>
       </c>
-      <c r="K204" s="4" t="s">
-        <v>15</v>
+      <c r="K204" s="4">
+        <v>0</v>
       </c>
       <c r="L204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="6">
         <v>179</v>
       </c>
     </row>
@@ -9097,13 +9113,13 @@
       <c r="J205" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K205" s="4" t="s">
-        <v>15</v>
+      <c r="K205" s="4">
+        <v>0</v>
       </c>
       <c r="L205" s="4">
         <v>1</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="6">
         <v>188</v>
       </c>
     </row>
@@ -9138,13 +9154,13 @@
       <c r="J206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K206" s="4" t="s">
-        <v>15</v>
+      <c r="K206" s="4">
+        <v>0</v>
       </c>
       <c r="L206" s="4">
         <v>2</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="6">
         <v>154</v>
       </c>
     </row>
@@ -9177,13 +9193,13 @@
       <c r="J207" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K207" s="4" t="s">
-        <v>15</v>
+      <c r="K207" s="4">
+        <v>0</v>
       </c>
       <c r="L207" s="4">
         <v>4</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="6">
         <v>188</v>
       </c>
     </row>
@@ -9218,13 +9234,13 @@
       <c r="J208" s="4">
         <v>1</v>
       </c>
-      <c r="K208" s="4" t="s">
-        <v>15</v>
+      <c r="K208" s="4">
+        <v>0</v>
       </c>
       <c r="L208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>165</v>
       </c>
     </row>
@@ -9257,13 +9273,13 @@
       <c r="J209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K209" s="4" t="s">
-        <v>15</v>
+      <c r="K209" s="4">
+        <v>0</v>
       </c>
       <c r="L209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="6">
         <v>197</v>
       </c>
     </row>
@@ -9298,13 +9314,13 @@
       <c r="J210" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K210" s="4" t="s">
-        <v>15</v>
+      <c r="K210" s="4">
+        <v>0</v>
       </c>
       <c r="L210" s="4">
         <v>5</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="6">
         <v>222</v>
       </c>
     </row>
@@ -9337,13 +9353,13 @@
       <c r="J211" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K211" s="4" t="s">
-        <v>15</v>
+      <c r="K211" s="4">
+        <v>0</v>
       </c>
       <c r="L211" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="6">
         <v>253</v>
       </c>
     </row>
@@ -9351,46 +9367,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
         <v>186</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="6">
         <v>406</v>
       </c>
       <c r="E212" s="5">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="F212" s="5">
+        <v>1187</v>
+      </c>
+      <c r="F212" s="6">
         <v>351</v>
       </c>
-      <c r="G212" s="5">
+      <c r="G212" s="6">
         <v>514</v>
       </c>
-      <c r="H212" s="5">
+      <c r="H212" s="6">
         <v>592</v>
       </c>
-      <c r="I212" s="5">
+      <c r="I212" s="6">
         <v>212</v>
       </c>
-      <c r="J212" s="5">
-        <v>15</v>
-      </c>
-      <c r="K212" s="5">
+      <c r="J212" s="6">
+        <v>15</v>
+      </c>
+      <c r="K212" s="4">
         <v>0</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>31</v>
       </c>
       <c r="M212" s="5">
-        <v>3.4940000000000002</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9462,7 +9478,7 @@
       <c r="L214" s="4">
         <v>3</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="6">
         <v>613</v>
       </c>
     </row>
@@ -9501,7 +9517,7 @@
       <c r="L215" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="6">
         <v>550</v>
       </c>
     </row>
@@ -9542,7 +9558,7 @@
       <c r="L216" s="4">
         <v>1</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="6">
         <v>403</v>
       </c>
     </row>
@@ -9581,7 +9597,7 @@
       <c r="L217" s="4">
         <v>2</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="6">
         <v>295</v>
       </c>
     </row>
@@ -9622,7 +9638,7 @@
       <c r="L218" s="4">
         <v>1</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="6">
         <v>296</v>
       </c>
     </row>
@@ -9661,7 +9677,7 @@
       <c r="L219" s="4">
         <v>1</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="6">
         <v>244</v>
       </c>
     </row>
@@ -9702,7 +9718,7 @@
       <c r="L220" s="4">
         <v>3</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="6">
         <v>365</v>
       </c>
     </row>
@@ -9741,7 +9757,7 @@
       <c r="L221" s="4">
         <v>2</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="6">
         <v>284</v>
       </c>
     </row>
@@ -9782,7 +9798,7 @@
       <c r="L222" s="4">
         <v>3</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="6">
         <v>456</v>
       </c>
     </row>
@@ -9821,7 +9837,7 @@
       <c r="L223" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="6">
         <v>388</v>
       </c>
     </row>
@@ -9862,7 +9878,7 @@
       <c r="L224" s="4">
         <v>2</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="6">
         <v>470</v>
       </c>
     </row>
@@ -9901,7 +9917,7 @@
       <c r="L225" s="4">
         <v>1</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="6">
         <v>447</v>
       </c>
     </row>
@@ -9942,7 +9958,7 @@
       <c r="L226" s="4">
         <v>4</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="6">
         <v>547</v>
       </c>
     </row>
@@ -9981,7 +9997,7 @@
       <c r="L227" s="4">
         <v>1</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="6">
         <v>470</v>
       </c>
     </row>
@@ -10022,7 +10038,7 @@
       <c r="L228" s="4">
         <v>7</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="6">
         <v>582</v>
       </c>
     </row>
@@ -10061,7 +10077,7 @@
       <c r="L229" s="4">
         <v>2</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="6">
         <v>545</v>
       </c>
     </row>
@@ -10102,7 +10118,7 @@
       <c r="L230" s="4">
         <v>2</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="6">
         <v>611</v>
       </c>
     </row>
@@ -10141,7 +10157,7 @@
       <c r="L231" s="4">
         <v>1</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="6">
         <v>617</v>
       </c>
     </row>
@@ -10182,7 +10198,7 @@
       <c r="L232" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="6">
         <v>530</v>
       </c>
     </row>
@@ -10221,7 +10237,7 @@
       <c r="L233" s="4">
         <v>6</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="6">
         <v>577</v>
       </c>
     </row>
@@ -10262,7 +10278,7 @@
       <c r="L234" s="4">
         <v>3</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="6">
         <v>480</v>
       </c>
     </row>
@@ -10301,7 +10317,7 @@
       <c r="L235" s="4">
         <v>5</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="6">
         <v>507</v>
       </c>
     </row>
@@ -10342,7 +10358,7 @@
       <c r="L236" s="4">
         <v>5</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="6">
         <v>623</v>
       </c>
     </row>
@@ -10381,7 +10397,7 @@
       <c r="L237" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="6">
         <v>945</v>
       </c>
     </row>
@@ -10389,46 +10405,46 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
         <v>329</v>
       </c>
       <c r="D238" s="5">
-        <v>1.0589999999999999</v>
+        <v>1059</v>
       </c>
       <c r="E238" s="5">
-        <v>5.0830000000000002</v>
+        <v>5083</v>
       </c>
       <c r="F238" s="5">
-        <v>1.0569999999999999</v>
+        <v>1057</v>
       </c>
       <c r="G238" s="5">
-        <v>1.3759999999999999</v>
+        <v>1376</v>
       </c>
       <c r="H238" s="5">
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="I238" s="5">
+        <v>2025</v>
+      </c>
+      <c r="I238" s="6">
         <v>796</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="6">
         <v>57</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="6">
         <v>8</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="6">
         <v>55</v>
       </c>
       <c r="M238" s="5">
-        <v>11.845000000000001</v>
+        <v>11845</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10500,7 +10516,7 @@
       <c r="L240" s="4">
         <v>1</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="6">
         <v>165</v>
       </c>
     </row>
@@ -10539,7 +10555,7 @@
       <c r="L241" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="6">
         <v>184</v>
       </c>
     </row>
@@ -10580,7 +10596,7 @@
       <c r="L242" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="6">
         <v>127</v>
       </c>
     </row>
@@ -10619,7 +10635,7 @@
       <c r="L243" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="6">
         <v>112</v>
       </c>
     </row>
@@ -10660,7 +10676,7 @@
       <c r="L244" s="4">
         <v>1</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="6">
         <v>116</v>
       </c>
     </row>
@@ -10699,7 +10715,7 @@
       <c r="L245" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="6">
         <v>98</v>
       </c>
     </row>
@@ -10740,7 +10756,7 @@
       <c r="L246" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="6">
         <v>130</v>
       </c>
     </row>
@@ -10779,7 +10795,7 @@
       <c r="L247" s="4">
         <v>1</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="6">
         <v>95</v>
       </c>
     </row>
@@ -10820,7 +10836,7 @@
       <c r="L248" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="6">
         <v>135</v>
       </c>
     </row>
@@ -10859,7 +10875,7 @@
       <c r="L249" s="4">
         <v>1</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="6">
         <v>129</v>
       </c>
     </row>
@@ -10900,7 +10916,7 @@
       <c r="L250" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="6">
         <v>134</v>
       </c>
     </row>
@@ -10939,7 +10955,7 @@
       <c r="L251" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="6">
         <v>129</v>
       </c>
     </row>
@@ -10980,7 +10996,7 @@
       <c r="L252" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="6">
         <v>146</v>
       </c>
     </row>
@@ -11019,7 +11035,7 @@
       <c r="L253" s="4">
         <v>1</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="6">
         <v>165</v>
       </c>
     </row>
@@ -11060,7 +11076,7 @@
       <c r="L254" s="4">
         <v>1</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="6">
         <v>224</v>
       </c>
     </row>
@@ -11099,7 +11115,7 @@
       <c r="L255" s="4">
         <v>2</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="6">
         <v>245</v>
       </c>
     </row>
@@ -11140,7 +11156,7 @@
       <c r="L256" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="6">
         <v>192</v>
       </c>
     </row>
@@ -11179,7 +11195,7 @@
       <c r="L257" s="4">
         <v>1</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="6">
         <v>214</v>
       </c>
     </row>
@@ -11220,7 +11236,7 @@
       <c r="L258" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="6">
         <v>205</v>
       </c>
     </row>
@@ -11259,7 +11275,7 @@
       <c r="L259" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="6">
         <v>257</v>
       </c>
     </row>
@@ -11300,7 +11316,7 @@
       <c r="L260" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="6">
         <v>153</v>
       </c>
     </row>
@@ -11339,7 +11355,7 @@
       <c r="L261" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="6">
         <v>211</v>
       </c>
     </row>
@@ -11380,7 +11396,7 @@
       <c r="L262" s="4">
         <v>1</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="6">
         <v>277</v>
       </c>
     </row>
@@ -11419,7 +11435,7 @@
       <c r="L263" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="6">
         <v>324</v>
       </c>
     </row>
@@ -11427,46 +11443,46 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
         <v>125</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="6">
         <v>654</v>
       </c>
       <c r="E264" s="5">
-        <v>1.48</v>
-      </c>
-      <c r="F264" s="5">
+        <v>1480</v>
+      </c>
+      <c r="F264" s="6">
         <v>362</v>
       </c>
-      <c r="G264" s="5">
+      <c r="G264" s="6">
         <v>486</v>
       </c>
-      <c r="H264" s="5">
+      <c r="H264" s="6">
         <v>685</v>
       </c>
-      <c r="I264" s="5">
+      <c r="I264" s="6">
         <v>339</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="6">
         <v>24</v>
       </c>
-      <c r="K264" s="5">
-        <v>2</v>
-      </c>
-      <c r="L264" s="5">
+      <c r="K264" s="6">
+        <v>2</v>
+      </c>
+      <c r="L264" s="6">
         <v>10</v>
       </c>
       <c r="M264" s="5">
-        <v>4.1669999999999998</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11491,7 +11507,7 @@
       <c r="J265" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K265" s="2" t="s">
+      <c r="K265" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L265" s="2" t="s">
@@ -11532,13 +11548,13 @@
       <c r="J266" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K266" s="4" t="s">
-        <v>15</v>
+      <c r="K266" s="4">
+        <v>0</v>
       </c>
       <c r="L266" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M266" s="5">
+      <c r="M266" s="6">
         <v>283</v>
       </c>
     </row>
@@ -11571,13 +11587,13 @@
       <c r="J267" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K267" s="4" t="s">
-        <v>15</v>
+      <c r="K267" s="4">
+        <v>0</v>
       </c>
       <c r="L267" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M267" s="5">
+      <c r="M267" s="6">
         <v>255</v>
       </c>
     </row>
@@ -11612,13 +11628,13 @@
       <c r="J268" s="4">
         <v>2</v>
       </c>
-      <c r="K268" s="4" t="s">
-        <v>15</v>
+      <c r="K268" s="4">
+        <v>0</v>
       </c>
       <c r="L268" s="4">
         <v>1</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="6">
         <v>200</v>
       </c>
     </row>
@@ -11651,13 +11667,13 @@
       <c r="J269" s="4">
         <v>7</v>
       </c>
-      <c r="K269" s="4" t="s">
-        <v>15</v>
+      <c r="K269" s="4">
+        <v>0</v>
       </c>
       <c r="L269" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="6">
         <v>157</v>
       </c>
     </row>
@@ -11692,13 +11708,13 @@
       <c r="J270" s="4">
         <v>5</v>
       </c>
-      <c r="K270" s="4" t="s">
-        <v>15</v>
+      <c r="K270" s="4">
+        <v>0</v>
       </c>
       <c r="L270" s="4">
         <v>1</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="6">
         <v>172</v>
       </c>
     </row>
@@ -11731,13 +11747,13 @@
       <c r="J271" s="4">
         <v>1</v>
       </c>
-      <c r="K271" s="4" t="s">
-        <v>15</v>
+      <c r="K271" s="4">
+        <v>0</v>
       </c>
       <c r="L271" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="6">
         <v>128</v>
       </c>
     </row>
@@ -11772,13 +11788,13 @@
       <c r="J272" s="4">
         <v>6</v>
       </c>
-      <c r="K272" s="4" t="s">
-        <v>15</v>
+      <c r="K272" s="4">
+        <v>0</v>
       </c>
       <c r="L272" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="6">
         <v>145</v>
       </c>
     </row>
@@ -11811,13 +11827,13 @@
       <c r="J273" s="4">
         <v>2</v>
       </c>
-      <c r="K273" s="4" t="s">
-        <v>15</v>
+      <c r="K273" s="4">
+        <v>0</v>
       </c>
       <c r="L273" s="4">
         <v>1</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="6">
         <v>125</v>
       </c>
     </row>
@@ -11852,13 +11868,13 @@
       <c r="J274" s="4">
         <v>3</v>
       </c>
-      <c r="K274" s="4" t="s">
-        <v>15</v>
+      <c r="K274" s="4">
+        <v>0</v>
       </c>
       <c r="L274" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="6">
         <v>181</v>
       </c>
     </row>
@@ -11891,13 +11907,13 @@
       <c r="J275" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K275" s="4" t="s">
-        <v>15</v>
+      <c r="K275" s="4">
+        <v>0</v>
       </c>
       <c r="L275" s="4">
         <v>1</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="6">
         <v>146</v>
       </c>
     </row>
@@ -11932,13 +11948,13 @@
       <c r="J276" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K276" s="4" t="s">
-        <v>15</v>
+      <c r="K276" s="4">
+        <v>0</v>
       </c>
       <c r="L276" s="4">
         <v>1</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="6">
         <v>186</v>
       </c>
     </row>
@@ -11971,13 +11987,13 @@
       <c r="J277" s="4">
         <v>1</v>
       </c>
-      <c r="K277" s="4" t="s">
-        <v>15</v>
+      <c r="K277" s="4">
+        <v>0</v>
       </c>
       <c r="L277" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="6">
         <v>158</v>
       </c>
     </row>
@@ -12012,13 +12028,13 @@
       <c r="J278" s="4">
         <v>1</v>
       </c>
-      <c r="K278" s="4" t="s">
-        <v>15</v>
+      <c r="K278" s="4">
+        <v>0</v>
       </c>
       <c r="L278" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="6">
         <v>176</v>
       </c>
     </row>
@@ -12051,13 +12067,13 @@
       <c r="J279" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K279" s="4" t="s">
-        <v>15</v>
+      <c r="K279" s="4">
+        <v>0</v>
       </c>
       <c r="L279" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="6">
         <v>222</v>
       </c>
     </row>
@@ -12092,13 +12108,13 @@
       <c r="J280" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K280" s="4" t="s">
-        <v>15</v>
+      <c r="K280" s="4">
+        <v>0</v>
       </c>
       <c r="L280" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="6">
         <v>251</v>
       </c>
     </row>
@@ -12131,13 +12147,13 @@
       <c r="J281" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K281" s="4" t="s">
-        <v>15</v>
+      <c r="K281" s="4">
+        <v>0</v>
       </c>
       <c r="L281" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="6">
         <v>266</v>
       </c>
     </row>
@@ -12172,13 +12188,13 @@
       <c r="J282" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K282" s="4" t="s">
-        <v>15</v>
+      <c r="K282" s="4">
+        <v>0</v>
       </c>
       <c r="L282" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="6">
         <v>249</v>
       </c>
     </row>
@@ -12211,13 +12227,13 @@
       <c r="J283" s="4">
         <v>1</v>
       </c>
-      <c r="K283" s="4" t="s">
-        <v>15</v>
+      <c r="K283" s="4">
+        <v>0</v>
       </c>
       <c r="L283" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="6">
         <v>240</v>
       </c>
     </row>
@@ -12252,13 +12268,13 @@
       <c r="J284" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K284" s="4" t="s">
-        <v>15</v>
+      <c r="K284" s="4">
+        <v>0</v>
       </c>
       <c r="L284" s="4">
         <v>3</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="6">
         <v>251</v>
       </c>
     </row>
@@ -12291,13 +12307,13 @@
       <c r="J285" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K285" s="4" t="s">
-        <v>15</v>
+      <c r="K285" s="4">
+        <v>0</v>
       </c>
       <c r="L285" s="4">
         <v>1</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="6">
         <v>232</v>
       </c>
     </row>
@@ -12332,13 +12348,13 @@
       <c r="J286" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K286" s="4" t="s">
-        <v>15</v>
+      <c r="K286" s="4">
+        <v>0</v>
       </c>
       <c r="L286" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="6">
         <v>184</v>
       </c>
     </row>
@@ -12371,13 +12387,13 @@
       <c r="J287" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K287" s="4" t="s">
-        <v>15</v>
+      <c r="K287" s="4">
+        <v>0</v>
       </c>
       <c r="L287" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="6">
         <v>264</v>
       </c>
     </row>
@@ -12412,13 +12428,13 @@
       <c r="J288" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K288" s="4" t="s">
-        <v>15</v>
+      <c r="K288" s="4">
+        <v>0</v>
       </c>
       <c r="L288" s="4">
         <v>1</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="6">
         <v>302</v>
       </c>
     </row>
@@ -12451,13 +12467,13 @@
       <c r="J289" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K289" s="4" t="s">
-        <v>15</v>
+      <c r="K289" s="4">
+        <v>0</v>
       </c>
       <c r="L289" s="4">
         <v>2</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="6">
         <v>410</v>
       </c>
     </row>
@@ -12465,46 +12481,46 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
         <v>302</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="6">
         <v>511</v>
       </c>
       <c r="E290" s="5">
-        <v>1.4390000000000001</v>
-      </c>
-      <c r="F290" s="5">
+        <v>1439</v>
+      </c>
+      <c r="F290" s="6">
         <v>690</v>
       </c>
-      <c r="G290" s="5">
+      <c r="G290" s="6">
         <v>724</v>
       </c>
-      <c r="H290" s="5">
+      <c r="H290" s="6">
         <v>986</v>
       </c>
-      <c r="I290" s="5">
+      <c r="I290" s="6">
         <v>490</v>
       </c>
-      <c r="J290" s="5">
+      <c r="J290" s="6">
         <v>29</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="4">
         <v>0</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="6">
         <v>12</v>
       </c>
       <c r="M290" s="5">
-        <v>5.1829999999999998</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12561,8 +12577,8 @@
       <c r="G292" s="4">
         <v>396</v>
       </c>
-      <c r="H292" s="4">
-        <v>1.3149999999999999</v>
+      <c r="H292" s="8">
+        <v>1315</v>
       </c>
       <c r="I292" s="4">
         <v>238</v>
@@ -12577,7 +12593,7 @@
         <v>10</v>
       </c>
       <c r="M292" s="5">
-        <v>1.964</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12600,8 +12616,8 @@
       <c r="G293" s="4">
         <v>329</v>
       </c>
-      <c r="H293" s="4">
-        <v>1.2290000000000001</v>
+      <c r="H293" s="8">
+        <v>1229</v>
       </c>
       <c r="I293" s="4">
         <v>349</v>
@@ -12616,7 +12632,7 @@
         <v>5</v>
       </c>
       <c r="M293" s="5">
-        <v>1.919</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12657,7 +12673,7 @@
         <v>10</v>
       </c>
       <c r="M294" s="5">
-        <v>1.23</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12696,7 +12712,7 @@
         <v>9</v>
       </c>
       <c r="M295" s="5">
-        <v>1.248</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12737,7 +12753,7 @@
         <v>7</v>
       </c>
       <c r="M296" s="5">
-        <v>1.1419999999999999</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12776,7 +12792,7 @@
         <v>4</v>
       </c>
       <c r="M297" s="5">
-        <v>1.2330000000000001</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12817,7 +12833,7 @@
         <v>2</v>
       </c>
       <c r="M298" s="5">
-        <v>1.335</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12856,7 +12872,7 @@
         <v>6</v>
       </c>
       <c r="M299" s="5">
-        <v>1.3520000000000001</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12897,7 +12913,7 @@
         <v>2</v>
       </c>
       <c r="M300" s="5">
-        <v>1.4890000000000001</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12936,7 +12952,7 @@
         <v>5</v>
       </c>
       <c r="M301" s="5">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12977,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="M302" s="5">
-        <v>1.327</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13016,7 +13032,7 @@
         <v>10</v>
       </c>
       <c r="M303" s="5">
-        <v>1.3320000000000001</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13057,7 +13073,7 @@
         <v>6</v>
       </c>
       <c r="M304" s="5">
-        <v>1.3049999999999999</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13096,7 +13112,7 @@
         <v>10</v>
       </c>
       <c r="M305" s="5">
-        <v>1.3640000000000001</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13137,7 +13153,7 @@
         <v>8</v>
       </c>
       <c r="M306" s="5">
-        <v>1.4550000000000001</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13176,7 +13192,7 @@
         <v>5</v>
       </c>
       <c r="M307" s="5">
-        <v>1.4119999999999999</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13217,7 +13233,7 @@
         <v>9</v>
       </c>
       <c r="M308" s="5">
-        <v>1.4610000000000001</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13256,7 +13272,7 @@
         <v>7</v>
       </c>
       <c r="M309" s="5">
-        <v>1.462</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13297,7 +13313,7 @@
         <v>3</v>
       </c>
       <c r="M310" s="5">
-        <v>1.2130000000000001</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13336,7 +13352,7 @@
         <v>5</v>
       </c>
       <c r="M311" s="5">
-        <v>1.3939999999999999</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13377,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="M312" s="5">
-        <v>1.008</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13416,7 +13432,7 @@
         <v>5</v>
       </c>
       <c r="M313" s="5">
-        <v>1.2909999999999999</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13457,7 +13473,7 @@
         <v>9</v>
       </c>
       <c r="M314" s="5">
-        <v>1.4119999999999999</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13496,53 +13512,53 @@
         <v>9</v>
       </c>
       <c r="M315" s="5">
-        <v>1.952</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
+      <c r="B316" s="7"/>
       <c r="C316" s="5">
-        <v>1.849</v>
+        <v>1849</v>
       </c>
       <c r="D316" s="5">
-        <v>3.0289999999999999</v>
+        <v>3029</v>
       </c>
       <c r="E316" s="5">
-        <v>9.0289999999999999</v>
+        <v>9029</v>
       </c>
       <c r="F316" s="5">
-        <v>3.1749999999999998</v>
+        <v>3175</v>
       </c>
       <c r="G316" s="5">
-        <v>4.3109999999999999</v>
+        <v>4311</v>
       </c>
       <c r="H316" s="5">
-        <v>7.6429999999999998</v>
+        <v>7643</v>
       </c>
       <c r="I316" s="5">
-        <v>4.2110000000000003</v>
-      </c>
-      <c r="J316" s="5">
+        <v>4211</v>
+      </c>
+      <c r="J316" s="6">
         <v>370</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="6">
         <v>33</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="6">
         <v>150</v>
       </c>
       <c r="M316" s="5">
-        <v>33.799999999999997</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13599,8 +13615,8 @@
       <c r="G318" s="4">
         <v>529</v>
       </c>
-      <c r="H318" s="4">
-        <v>1.4219999999999999</v>
+      <c r="H318" s="8">
+        <v>1422</v>
       </c>
       <c r="I318" s="4">
         <v>273</v>
@@ -13615,7 +13631,7 @@
         <v>9</v>
       </c>
       <c r="M318" s="5">
-        <v>2.2440000000000002</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13638,8 +13654,8 @@
       <c r="G319" s="4">
         <v>445</v>
       </c>
-      <c r="H319" s="4">
-        <v>1.3859999999999999</v>
+      <c r="H319" s="8">
+        <v>1386</v>
       </c>
       <c r="I319" s="4">
         <v>416</v>
@@ -13654,7 +13670,7 @@
         <v>5</v>
       </c>
       <c r="M319" s="5">
-        <v>2.266</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13695,7 +13711,7 @@
         <v>10</v>
       </c>
       <c r="M320" s="5">
-        <v>1.413</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13734,7 +13750,7 @@
         <v>5</v>
       </c>
       <c r="M321" s="5">
-        <v>1.306</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13775,7 +13791,7 @@
         <v>9</v>
       </c>
       <c r="M322" s="5">
-        <v>1.2050000000000001</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13814,7 +13830,7 @@
         <v>5</v>
       </c>
       <c r="M323" s="5">
-        <v>1.216</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13855,7 +13871,7 @@
         <v>6</v>
       </c>
       <c r="M324" s="5">
-        <v>1.2549999999999999</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13894,7 +13910,7 @@
         <v>6</v>
       </c>
       <c r="M325" s="5">
-        <v>1.292</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13935,7 +13951,7 @@
         <v>8</v>
       </c>
       <c r="M326" s="5">
-        <v>1.5229999999999999</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13974,7 +13990,7 @@
         <v>8</v>
       </c>
       <c r="M327" s="5">
-        <v>1.401</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14015,7 +14031,7 @@
         <v>11</v>
       </c>
       <c r="M328" s="5">
-        <v>1.421</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14054,7 +14070,7 @@
         <v>15</v>
       </c>
       <c r="M329" s="5">
-        <v>1.4159999999999999</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14095,7 +14111,7 @@
         <v>11</v>
       </c>
       <c r="M330" s="5">
-        <v>1.538</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14134,7 +14150,7 @@
         <v>11</v>
       </c>
       <c r="M331" s="5">
-        <v>1.5089999999999999</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14175,7 +14191,7 @@
         <v>15</v>
       </c>
       <c r="M332" s="5">
-        <v>1.6060000000000001</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14214,7 +14230,7 @@
         <v>15</v>
       </c>
       <c r="M333" s="5">
-        <v>1.544</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14255,7 +14271,7 @@
         <v>10</v>
       </c>
       <c r="M334" s="5">
-        <v>1.5569999999999999</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14294,7 +14310,7 @@
         <v>10</v>
       </c>
       <c r="M335" s="5">
-        <v>1.641</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14335,7 +14351,7 @@
         <v>9</v>
       </c>
       <c r="M336" s="5">
-        <v>1.3640000000000001</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14374,7 +14390,7 @@
         <v>13</v>
       </c>
       <c r="M337" s="5">
-        <v>1.5329999999999999</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14415,7 +14431,7 @@
         <v>11</v>
       </c>
       <c r="M338" s="5">
-        <v>1.1619999999999999</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14454,7 +14470,7 @@
         <v>21</v>
       </c>
       <c r="M339" s="5">
-        <v>1.4610000000000001</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14495,7 +14511,7 @@
         <v>19</v>
       </c>
       <c r="M340" s="5">
-        <v>1.617</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14503,8 +14519,8 @@
       <c r="B341" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C341" s="4">
-        <v>1.2190000000000001</v>
+      <c r="C341" s="8">
+        <v>1219</v>
       </c>
       <c r="D341" s="4">
         <v>435</v>
@@ -14534,53 +14550,53 @@
         <v>36</v>
       </c>
       <c r="M341" s="5">
-        <v>2.153</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="5">
-        <v>3.03</v>
+        <v>3030</v>
       </c>
       <c r="D342" s="5">
-        <v>2.117</v>
+        <v>2117</v>
       </c>
       <c r="E342" s="5">
-        <v>10.417</v>
+        <v>10417</v>
       </c>
       <c r="F342" s="5">
-        <v>3.1320000000000001</v>
+        <v>3132</v>
       </c>
       <c r="G342" s="5">
-        <v>4.984</v>
+        <v>4984</v>
       </c>
       <c r="H342" s="5">
-        <v>7.8979999999999997</v>
+        <v>7898</v>
       </c>
       <c r="I342" s="5">
-        <v>4.3639999999999999</v>
-      </c>
-      <c r="J342" s="5">
+        <v>4364</v>
+      </c>
+      <c r="J342" s="6">
         <v>388</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="6">
         <v>35</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="6">
         <v>278</v>
       </c>
       <c r="M342" s="5">
-        <v>36.643000000000001</v>
+        <v>36643</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="11"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14652,7 +14668,7 @@
       <c r="L344" s="4">
         <v>2</v>
       </c>
-      <c r="M344" s="5">
+      <c r="M344" s="6">
         <v>276</v>
       </c>
     </row>
@@ -14691,7 +14707,7 @@
       <c r="L345" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M345" s="5">
+      <c r="M345" s="6">
         <v>275</v>
       </c>
     </row>
@@ -14732,7 +14748,7 @@
       <c r="L346" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M346" s="5">
+      <c r="M346" s="6">
         <v>202</v>
       </c>
     </row>
@@ -14771,7 +14787,7 @@
       <c r="L347" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M347" s="5">
+      <c r="M347" s="6">
         <v>140</v>
       </c>
     </row>
@@ -14812,7 +14828,7 @@
       <c r="L348" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M348" s="5">
+      <c r="M348" s="6">
         <v>161</v>
       </c>
     </row>
@@ -14851,7 +14867,7 @@
       <c r="L349" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M349" s="5">
+      <c r="M349" s="6">
         <v>126</v>
       </c>
     </row>
@@ -14892,7 +14908,7 @@
       <c r="L350" s="4">
         <v>1</v>
       </c>
-      <c r="M350" s="5">
+      <c r="M350" s="6">
         <v>141</v>
       </c>
     </row>
@@ -14931,7 +14947,7 @@
       <c r="L351" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M351" s="5">
+      <c r="M351" s="6">
         <v>103</v>
       </c>
     </row>
@@ -14972,7 +14988,7 @@
       <c r="L352" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M352" s="5">
+      <c r="M352" s="6">
         <v>179</v>
       </c>
     </row>
@@ -15011,7 +15027,7 @@
       <c r="L353" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M353" s="5">
+      <c r="M353" s="6">
         <v>157</v>
       </c>
     </row>
@@ -15052,7 +15068,7 @@
       <c r="L354" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M354" s="5">
+      <c r="M354" s="6">
         <v>187</v>
       </c>
     </row>
@@ -15091,7 +15107,7 @@
       <c r="L355" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M355" s="5">
+      <c r="M355" s="6">
         <v>164</v>
       </c>
     </row>
@@ -15132,7 +15148,7 @@
       <c r="L356" s="4">
         <v>1</v>
       </c>
-      <c r="M356" s="5">
+      <c r="M356" s="6">
         <v>228</v>
       </c>
     </row>
@@ -15171,7 +15187,7 @@
       <c r="L357" s="4">
         <v>1</v>
       </c>
-      <c r="M357" s="5">
+      <c r="M357" s="6">
         <v>213</v>
       </c>
     </row>
@@ -15212,7 +15228,7 @@
       <c r="L358" s="4">
         <v>1</v>
       </c>
-      <c r="M358" s="5">
+      <c r="M358" s="6">
         <v>266</v>
       </c>
     </row>
@@ -15251,7 +15267,7 @@
       <c r="L359" s="4">
         <v>1</v>
       </c>
-      <c r="M359" s="5">
+      <c r="M359" s="6">
         <v>205</v>
       </c>
     </row>
@@ -15292,7 +15308,7 @@
       <c r="L360" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M360" s="5">
+      <c r="M360" s="6">
         <v>227</v>
       </c>
     </row>
@@ -15331,7 +15347,7 @@
       <c r="L361" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M361" s="5">
+      <c r="M361" s="6">
         <v>256</v>
       </c>
     </row>
@@ -15372,7 +15388,7 @@
       <c r="L362" s="4">
         <v>2</v>
       </c>
-      <c r="M362" s="5">
+      <c r="M362" s="6">
         <v>218</v>
       </c>
     </row>
@@ -15411,7 +15427,7 @@
       <c r="L363" s="4">
         <v>1</v>
       </c>
-      <c r="M363" s="5">
+      <c r="M363" s="6">
         <v>245</v>
       </c>
     </row>
@@ -15452,7 +15468,7 @@
       <c r="L364" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M364" s="5">
+      <c r="M364" s="6">
         <v>184</v>
       </c>
     </row>
@@ -15491,7 +15507,7 @@
       <c r="L365" s="4">
         <v>1</v>
       </c>
-      <c r="M365" s="5">
+      <c r="M365" s="6">
         <v>246</v>
       </c>
     </row>
@@ -15532,7 +15548,7 @@
       <c r="L366" s="4">
         <v>1</v>
       </c>
-      <c r="M366" s="5">
+      <c r="M366" s="6">
         <v>274</v>
       </c>
     </row>
@@ -15571,7 +15587,7 @@
       <c r="L367" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M367" s="5">
+      <c r="M367" s="6">
         <v>360</v>
       </c>
     </row>
@@ -15579,39 +15595,49 @@
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
+      <c r="B368" s="7"/>
+      <c r="C368" s="6">
         <v>251</v>
       </c>
-      <c r="D368" s="5">
+      <c r="D368" s="6">
         <v>674</v>
       </c>
       <c r="E368" s="5">
-        <v>1.744</v>
-      </c>
-      <c r="F368" s="5">
+        <v>1744</v>
+      </c>
+      <c r="F368" s="6">
         <v>439</v>
       </c>
-      <c r="G368" s="5">
+      <c r="G368" s="6">
         <v>634</v>
       </c>
-      <c r="H368" s="5">
+      <c r="H368" s="6">
         <v>908</v>
       </c>
-      <c r="I368" s="5">
+      <c r="I368" s="6">
         <v>344</v>
       </c>
-      <c r="J368" s="5">
+      <c r="J368" s="6">
         <v>23</v>
       </c>
-      <c r="K368" s="5">
+      <c r="K368" s="6">
         <v>4</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="6">
         <v>12</v>
       </c>
       <c r="M368" s="5">
-        <v>5.0330000000000004</v>
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A369" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A370" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
